--- a/assets/map/map_designer.xlsx
+++ b/assets/map/map_designer.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="map_designer" sheetId="4" r:id="rId1"/>
-    <sheet name="unit_preview" sheetId="3" r:id="rId2"/>
+    <sheet name="unit_preview" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="24">
   <si>
     <t>P</t>
   </si>
@@ -39,10 +39,67 @@
     <t>M</t>
   </si>
   <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>reef</t>
+  </si>
+  <si>
+    <t>bomber</t>
+  </si>
+  <si>
+    <t>fighter</t>
+  </si>
+  <si>
+    <t>0factory</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>destroyer</t>
+  </si>
+  <si>
+    <t>submarine</t>
+  </si>
+  <si>
+    <t>battleship</t>
+  </si>
+  <si>
+    <t>cruiser</t>
   </si>
 </sst>
 </file>
@@ -713,7 +770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,10 +778,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,11 +793,14 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -751,6 +811,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,7 +871,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="25">
     <dxf>
       <font>
         <color theme="3" tint="-0.25"/>
@@ -855,6 +921,35 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="9" tint="-0.25"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00BDC4"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF29F3FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF2562FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <color rgb="FFF4F207"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF2F91FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1051,27 +1146,38 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="totalRow" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="17"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="16"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="15"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="14"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="13"/>
-      <tableStyleElement type="pageFieldValues" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="totalRow" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="20"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="19"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="18"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="17"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="16"/>
+      <tableStyleElement type="pageFieldValues" dxfId="15"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="0029F3FF"/>
+      <color rgb="000061F2"/>
+      <color rgb="002562FF"/>
+      <color rgb="000167FF"/>
+      <color rgb="00F4F207"/>
+      <color rgb="0000BDC4"/>
+      <color rgb="002F91FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1338,17 +1444,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="15.9444444444444" style="3" customWidth="1"/>
-    <col min="2" max="27" width="6.77777777777778" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="10" style="2"/>
+    <col min="1" max="1" width="15.9444444444444" style="2" customWidth="1"/>
+    <col min="2" max="27" width="6.77777777777778" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="10" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="66" customHeight="1" spans="1:25">
@@ -1426,1617 +1532,1659 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="32" customHeight="1" spans="1:29">
+    <row r="2" ht="32" customHeight="1" spans="1:30">
       <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="11"/>
-      <c r="AC2" s="2" t="s">
-        <v>0</v>
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="12"/>
+      <c r="AC2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" ht="32" customHeight="1" spans="1:29">
+    <row r="3" ht="32" customHeight="1" spans="1:30">
       <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AC3" s="2" t="s">
-        <v>1</v>
+      <c r="B3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AC3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" ht="32" customHeight="1" spans="1:29">
+    <row r="4" ht="32" customHeight="1" spans="1:30">
       <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AC4" s="2" t="s">
-        <v>3</v>
+      <c r="B4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AC4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" ht="32" customHeight="1" spans="1:29">
+    <row r="5" ht="32" customHeight="1" spans="1:30">
       <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AC5" s="2" t="s">
-        <v>2</v>
+      <c r="B5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AC5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" ht="32" customHeight="1" spans="1:29">
+    <row r="6" ht="32" customHeight="1" spans="1:30">
       <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="11"/>
-      <c r="AC6" s="2" t="s">
-        <v>4</v>
+      <c r="B6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="12"/>
+      <c r="AC6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" ht="32" customHeight="1" spans="1:27">
+    <row r="7" ht="32" customHeight="1" spans="1:30">
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
+      <c r="B7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AC7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" ht="32" customHeight="1" spans="1:27">
+    <row r="8" ht="32" customHeight="1" spans="1:30">
       <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
+      <c r="B8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AC8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" ht="32" customHeight="1" spans="1:27">
+    <row r="9" ht="32" customHeight="1" spans="1:30">
       <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
+      <c r="B9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AC9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" ht="32" customHeight="1" spans="1:27">
       <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
+      <c r="B10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
     </row>
     <row r="11" ht="32" customHeight="1" spans="1:27">
-      <c r="A11" s="9">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="11"/>
+      <c r="B11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="12"/>
     </row>
     <row r="12" ht="32" customHeight="1" spans="1:27">
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
+      <c r="B12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
     </row>
     <row r="13" ht="32" customHeight="1" spans="1:27">
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
+      <c r="B13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
     </row>
     <row r="14" ht="32" customHeight="1" spans="1:27">
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
+      <c r="B14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
     </row>
     <row r="15" ht="32" customHeight="1" spans="1:27">
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="X15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
+      <c r="B15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
     </row>
     <row r="16" ht="32" customHeight="1" spans="1:27">
-      <c r="A16" s="9">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="11"/>
+      <c r="B16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="V16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="12"/>
     </row>
     <row r="17" ht="32" customHeight="1" spans="1:27">
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
+      <c r="B17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
     </row>
     <row r="18" ht="32" customHeight="1" spans="1:27">
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="X18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
+      <c r="B18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="X18" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
     </row>
     <row r="19" ht="32" customHeight="1" spans="1:27">
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
+      <c r="B19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
     </row>
     <row r="20" ht="32" customHeight="1" spans="1:27">
       <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="U20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
+      <c r="B20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="U20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
     </row>
     <row r="21" ht="32" customHeight="1" spans="1:27">
-      <c r="A21" s="9">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="X21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="11"/>
+      <c r="B21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A1:$XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="95" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="96" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="97" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="98" operator="equal">
       <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"W"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3047,17 +3195,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="15.9444444444444" style="3" customWidth="1"/>
-    <col min="2" max="27" width="6.77777777777778" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="10" style="2"/>
+    <col min="1" max="1" width="15.9444444444444" style="2" customWidth="1"/>
+    <col min="2" max="27" width="6.77777777777778" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="10" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="66" customHeight="1" spans="1:25">
@@ -3135,7 +3283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="32" customHeight="1" spans="1:29">
+    <row r="2" ht="32" customHeight="1" spans="1:30">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -3211,13 +3359,16 @@
       <c r="Y2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="11"/>
-      <c r="AC2" s="2" t="s">
-        <v>0</v>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="12"/>
+      <c r="AC2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="32" customHeight="1" spans="1:29">
+    <row r="3" ht="32" customHeight="1" spans="1:30">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -3293,13 +3444,16 @@
       <c r="Y3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AC3" s="2" t="s">
-        <v>1</v>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AC3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="32" customHeight="1" spans="1:29">
+    <row r="4" ht="32" customHeight="1" spans="1:30">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -3307,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>0</v>
@@ -3331,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>0</v>
@@ -3355,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>0</v>
@@ -3375,13 +3529,16 @@
       <c r="Y4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AC4" s="2" t="s">
-        <v>3</v>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AC4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="32" customHeight="1" spans="1:29">
+    <row r="5" ht="32" customHeight="1" spans="1:30">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -3389,10 +3546,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>0</v>
@@ -3401,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>0</v>
@@ -3413,10 +3570,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>0</v>
@@ -3437,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>0</v>
@@ -3457,13 +3614,16 @@
       <c r="Y5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AC5" s="2" t="s">
-        <v>2</v>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AC5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="32" customHeight="1" spans="1:29">
+    <row r="6" ht="32" customHeight="1" spans="1:30">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -3471,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>0</v>
@@ -3483,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>0</v>
@@ -3539,13 +3699,16 @@
       <c r="Y6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="11"/>
-      <c r="AC6" s="2" t="s">
-        <v>4</v>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="12"/>
+      <c r="AC6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
+    <row r="7" ht="32" customHeight="1" spans="1:30">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3553,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>0</v>
@@ -3573,14 +3736,14 @@
       <c r="I7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>4</v>
+      <c r="J7" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>0</v>
@@ -3601,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>0</v>
@@ -3621,10 +3784,16 @@
       <c r="Y7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AC7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
+    <row r="8" ht="32" customHeight="1" spans="1:30">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -3638,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>0</v>
@@ -3652,8 +3821,8 @@
       <c r="I8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>4</v>
+      <c r="J8" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>0</v>
@@ -3662,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>0</v>
@@ -3686,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>0</v>
@@ -3700,63 +3869,65 @@
       <c r="Y8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AC8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
+    <row r="9" ht="32" customHeight="1" spans="1:30">
       <c r="A9" s="8">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>4</v>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="S9" s="7" t="s">
         <v>0</v>
@@ -3779,39 +3950,41 @@
       <c r="Y9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AC9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
+    <row r="10" ht="32" customHeight="1" spans="1:27">
       <c r="A10" s="8">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>4</v>
+      <c r="J10" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>0</v>
@@ -3834,14 +4007,14 @@
       <c r="Q10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>4</v>
+      <c r="R10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>0</v>
@@ -3858,21 +4031,19 @@
       <c r="Y10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
-      <c r="A11" s="9">
+    <row r="11" ht="32" customHeight="1" spans="1:27">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>1</v>
@@ -3880,17 +4051,15 @@
       <c r="F11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>4</v>
+      <c r="J11" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>0</v>
@@ -3913,8 +4082,8 @@
       <c r="Q11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="R11" s="2" t="s">
-        <v>4</v>
+      <c r="R11" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="S11" s="7" t="s">
         <v>0</v>
@@ -3937,10 +4106,10 @@
       <c r="Y11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="11"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="12"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
+    <row r="12" ht="32" customHeight="1" spans="1:27">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -3948,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>0</v>
@@ -3968,11 +4137,11 @@
       <c r="I12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>4</v>
+      <c r="J12" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>0</v>
@@ -3992,11 +4161,11 @@
       <c r="Q12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="R12" s="2" t="s">
-        <v>4</v>
+      <c r="R12" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T12" s="7" t="s">
         <v>0</v>
@@ -4004,8 +4173,8 @@
       <c r="U12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>4</v>
+      <c r="V12" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="W12" s="7" t="s">
         <v>0</v>
@@ -4016,10 +4185,10 @@
       <c r="Y12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
+    <row r="13" ht="32" customHeight="1" spans="1:27">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -4027,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>0</v>
@@ -4047,14 +4216,14 @@
       <c r="I13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>4</v>
+      <c r="J13" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>0</v>
@@ -4071,20 +4240,20 @@
       <c r="Q13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>4</v>
+      <c r="R13" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V13" s="2" t="s">
-        <v>4</v>
+      <c r="V13" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="W13" s="7" t="s">
         <v>0</v>
@@ -4095,10 +4264,10 @@
       <c r="Y13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
+    <row r="14" ht="32" customHeight="1" spans="1:27">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -4106,16 +4275,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>0</v>
@@ -4126,8 +4295,8 @@
       <c r="I14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>4</v>
+      <c r="J14" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>0</v>
@@ -4150,8 +4319,8 @@
       <c r="Q14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="R14" s="2" t="s">
-        <v>4</v>
+      <c r="R14" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="7" t="s">
         <v>0</v>
@@ -4162,8 +4331,8 @@
       <c r="U14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V14" s="2" t="s">
-        <v>4</v>
+      <c r="V14" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="7" t="s">
         <v>0</v>
@@ -4174,10 +4343,10 @@
       <c r="Y14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
+    <row r="15" ht="32" customHeight="1" spans="1:27">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -4185,16 +4354,16 @@
         <v>0</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>2</v>
@@ -4205,14 +4374,14 @@
       <c r="I15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>4</v>
+      <c r="J15" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>0</v>
@@ -4229,20 +4398,20 @@
       <c r="Q15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>4</v>
+      <c r="R15" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T15" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V15" s="2" t="s">
-        <v>4</v>
+      <c r="V15" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="W15" s="7" t="s">
         <v>2</v>
@@ -4253,27 +4422,27 @@
       <c r="Y15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
-      <c r="A16" s="9">
+    <row r="16" ht="32" customHeight="1" spans="1:27">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>0</v>
@@ -4284,8 +4453,8 @@
       <c r="I16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>4</v>
+      <c r="J16" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>0</v>
@@ -4294,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>0</v>
@@ -4308,8 +4477,8 @@
       <c r="Q16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>4</v>
+      <c r="R16" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="S16" s="7" t="s">
         <v>0</v>
@@ -4318,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="W16" s="7" t="s">
         <v>0</v>
@@ -4332,42 +4501,42 @@
       <c r="Y16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="11"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="12"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
+    <row r="17" ht="32" customHeight="1" spans="1:27">
       <c r="A17" s="8">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>4</v>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>0</v>
@@ -4378,17 +4547,17 @@
       <c r="N17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>4</v>
+      <c r="O17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>0</v>
@@ -4399,8 +4568,8 @@
       <c r="U17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>4</v>
+      <c r="V17" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="W17" s="7" t="s">
         <v>0</v>
@@ -4411,10 +4580,10 @@
       <c r="Y17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
+    <row r="18" ht="32" customHeight="1" spans="1:27">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -4428,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>0</v>
@@ -4445,20 +4614,20 @@
       <c r="J18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>4</v>
+      <c r="K18" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>2</v>
@@ -4476,10 +4645,10 @@
         <v>1</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="W18" s="7" t="s">
         <v>1</v>
@@ -4490,10 +4659,10 @@
       <c r="Y18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
+    <row r="19" ht="32" customHeight="1" spans="1:27">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -4524,17 +4693,17 @@
       <c r="J19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>4</v>
+      <c r="K19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>0</v>
@@ -4557,8 +4726,8 @@
       <c r="U19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>4</v>
+      <c r="V19" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="W19" s="7" t="s">
         <v>0</v>
@@ -4569,10 +4738,10 @@
       <c r="Y19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
+    <row r="20" ht="32" customHeight="1" spans="1:27">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -4586,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>0</v>
@@ -4610,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>0</v>
@@ -4634,10 +4803,10 @@
         <v>1</v>
       </c>
       <c r="U20" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="W20" s="7" t="s">
         <v>0</v>
@@ -4648,11 +4817,11 @@
       <c r="Y20" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="32" customHeight="1" spans="1:27">
-      <c r="A21" s="9">
+    <row r="21" ht="32" customHeight="1" spans="1:27">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -4703,20 +4872,20 @@
       <c r="Q21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>4</v>
+      <c r="R21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="W21" s="7" t="s">
         <v>0</v>
@@ -4727,25 +4896,34 @@
       <c r="Y21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="11"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A1:$XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"M"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"W"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"S"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"E"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
